--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H2">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N2">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O2">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P2">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q2">
-        <v>22.97276030935522</v>
+        <v>0.760424842595</v>
       </c>
       <c r="R2">
-        <v>206.754842784197</v>
+        <v>6.843823583355</v>
       </c>
       <c r="S2">
-        <v>0.0467075298392174</v>
+        <v>0.00278817561651153</v>
       </c>
       <c r="T2">
-        <v>0.0467075298392174</v>
+        <v>0.002788175616511529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H3">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q3">
-        <v>48.92729149366968</v>
+        <v>3.264478947868334</v>
       </c>
       <c r="R3">
-        <v>440.345623443027</v>
+        <v>29.380310530815</v>
       </c>
       <c r="S3">
-        <v>0.09947750712664818</v>
+        <v>0.01196954661817824</v>
       </c>
       <c r="T3">
-        <v>0.09947750712664817</v>
+        <v>0.01196954661817824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H4">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N4">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q4">
-        <v>15.91074756185945</v>
+        <v>0.9180905129805556</v>
       </c>
       <c r="R4">
-        <v>143.196728056735</v>
+        <v>8.262814616825001</v>
       </c>
       <c r="S4">
-        <v>0.0323492565326236</v>
+        <v>0.003366272955138431</v>
       </c>
       <c r="T4">
-        <v>0.0323492565326236</v>
+        <v>0.00336627295513843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.366539</v>
       </c>
       <c r="I5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N5">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O5">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P5">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q5">
-        <v>31.52710171352855</v>
+        <v>15.640998188431</v>
       </c>
       <c r="R5">
-        <v>283.743915421757</v>
+        <v>140.768983695879</v>
       </c>
       <c r="S5">
-        <v>0.064099961180068</v>
+        <v>0.05734932280495049</v>
       </c>
       <c r="T5">
-        <v>0.06409996118006801</v>
+        <v>0.05734932280495048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.366539</v>
       </c>
       <c r="I6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>255.358833</v>
       </c>
       <c r="O6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q6">
         <v>67.14629303210967</v>
@@ -818,10 +818,10 @@
         <v>604.316637288987</v>
       </c>
       <c r="S6">
-        <v>0.13651983667426</v>
+        <v>0.2461987648015028</v>
       </c>
       <c r="T6">
-        <v>0.13651983667426</v>
+        <v>0.2461987648015028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.366539</v>
       </c>
       <c r="I7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N7">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q7">
-        <v>21.83541507272611</v>
+        <v>18.88398595887611</v>
       </c>
       <c r="R7">
-        <v>196.518735654535</v>
+        <v>169.955873629885</v>
       </c>
       <c r="S7">
-        <v>0.04439511348776516</v>
+        <v>0.06924006981861151</v>
       </c>
       <c r="T7">
-        <v>0.04439511348776517</v>
+        <v>0.0692400698186115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H8">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I8">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J8">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N8">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O8">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P8">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q8">
-        <v>74.17435433740121</v>
+        <v>25.55537703598</v>
       </c>
       <c r="R8">
-        <v>667.569189036611</v>
+        <v>229.99839332382</v>
       </c>
       <c r="S8">
-        <v>0.1508090809230269</v>
+        <v>0.09370140891152763</v>
       </c>
       <c r="T8">
-        <v>0.1508090809230269</v>
+        <v>0.09370140891152759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H9">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I9">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J9">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>255.358833</v>
       </c>
       <c r="O9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q9">
-        <v>157.9762382556557</v>
+        <v>109.7083967616067</v>
       </c>
       <c r="R9">
-        <v>1421.786144300901</v>
+        <v>987.37557085446</v>
       </c>
       <c r="S9">
-        <v>0.3211925673210689</v>
+        <v>0.4022570800467632</v>
       </c>
       <c r="T9">
-        <v>0.3211925673210689</v>
+        <v>0.402257080046763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H10">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I10">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J10">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N10">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q10">
-        <v>51.37255652058945</v>
+        <v>30.85400147147778</v>
       </c>
       <c r="R10">
-        <v>462.353008685305</v>
+        <v>277.6860132433</v>
       </c>
       <c r="S10">
-        <v>0.1044491469153217</v>
+        <v>0.1131293584268164</v>
       </c>
       <c r="T10">
-        <v>0.1044491469153217</v>
+        <v>0.1131293584268164</v>
       </c>
     </row>
   </sheetData>
